--- a/small_dots_stats.xlsx
+++ b/small_dots_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsh\Documents\GitHub\BachelorQUBOProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7028EEDF-B9DD-4B75-8A90-4BB694673E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF8E8A-084E-4246-9A6F-0A0294C56FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>File Name</t>
   </si>
@@ -123,12 +123,6 @@
   </si>
   <si>
     <t>mmu_filtering_dot\Pyruvate.dot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max </t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -497,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,32 +1107,6 @@
         <v>-56.97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25">
-        <f>MAX(G2:G23)</f>
-        <v>-35.479999999999997</v>
-      </c>
-      <c r="H25">
-        <f>MAX(H2:H23)</f>
-        <v>-50.97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26">
-        <f>MIN(G2:G23)</f>
-        <v>-51.61</v>
-      </c>
-      <c r="H26">
-        <f>MIN(H2:H23)</f>
-        <v>-84.21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
